--- a/Document/ConFig_EdgeRouterX/Hướng dẫn cấu hình cho EdgeRouterX.xlsx
+++ b/Document/ConFig_EdgeRouterX/Hướng dẫn cấu hình cho EdgeRouterX.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13512"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13512" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PPPoE &amp; Load Balancing" sheetId="1" r:id="rId1"/>
@@ -3490,7 +3490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -6587,7 +6587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -6652,7 +6652,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="10">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>30</v>
@@ -6669,7 +6669,7 @@
         <v>35</v>
       </c>
       <c r="B6" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>30</v>
@@ -6794,7 +6794,7 @@
       <c r="B17" s="18"/>
       <c r="D17" s="14" t="str">
         <f>"set traffic-control advanced-queue queue-type "&amp;B8&amp;" HFQ_1 max-rate "&amp;B5&amp;"mbit"</f>
-        <v>set traffic-control advanced-queue queue-type hfq HFQ_1 max-rate 80mbit</v>
+        <v>set traffic-control advanced-queue queue-type hfq HFQ_1 max-rate 30mbit</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>55</v>
@@ -6835,7 +6835,7 @@
       <c r="B21" s="61"/>
       <c r="D21" s="22" t="str">
         <f>"set traffic-control advanced-queue queue-type "&amp;B8&amp;" HFQ_2 max-rate "&amp;B6&amp;"mbit"</f>
-        <v>set traffic-control advanced-queue queue-type hfq HFQ_2 max-rate 50mbit</v>
+        <v>set traffic-control advanced-queue queue-type hfq HFQ_2 max-rate 30mbit</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>58</v>
